--- a/electraton2020/Backend/postulaciones.xlsx
+++ b/electraton2020/Backend/postulaciones.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -623,9 +623,26 @@
         <v>2025-02-07T23:54:24.508Z</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Eduardo</v>
+      </c>
+      <c r="B14" t="str">
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>A01</v>
+      </c>
+      <c r="D14" t="str">
+        <v>IRS</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2025-02-08T00:02:46.400Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/electraton2020/Backend/postulaciones.xlsx
+++ b/electraton2020/Backend/postulaciones.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -640,9 +640,60 @@
         <v>2025-02-08T00:02:46.400Z</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Eduardo</v>
+      </c>
+      <c r="B15" t="str">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>A01</v>
+      </c>
+      <c r="D15" t="str">
+        <v>IRS</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2025-02-08T00:12:29.806Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Eduardo</v>
+      </c>
+      <c r="B16" t="str">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <v>A01</v>
+      </c>
+      <c r="D16" t="str">
+        <v>IRS</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2025-02-08T00:17:42.348Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Eduardo</v>
+      </c>
+      <c r="B17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>A01</v>
+      </c>
+      <c r="D17" t="str">
+        <v>IRS</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2025-02-08T00:18:15.028Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E17"/>
   </ignoredErrors>
 </worksheet>
 </file>